--- a/VersionRecords/Version 5.0.3.5 20161018/版本Bug和特性计划及评审表v5.0.3.5_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.3.5 20161018/版本Bug和特性计划及评审表v5.0.3.5_磐石组.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.0.3.5 20161018\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.3.5新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
-    <sheet name="配置文件" sheetId="3" r:id="rId3"/>
+    <sheet name="配置文件（生产环境" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.3.5新特性|Fix Bug'!$A$1:$T$3</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -190,14 +185,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>线上退款</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>房东PC、房东APP</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -217,12 +204,20 @@
     <t>重要且紧急</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>线上退款</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -648,6 +643,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -667,7 +730,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -987,14 +1050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="10" customWidth="1"/>
@@ -1020,12 +1083,12 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
@@ -1082,21 +1145,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" s="9" customFormat="1" ht="61.5" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>26</v>
@@ -1110,13 +1173,13 @@
       <c r="I2" s="16"/>
       <c r="J2" s="15"/>
       <c r="K2" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>45</v>
@@ -1133,12 +1196,12 @@
       <c r="T2" s="27"/>
       <c r="U2" s="28"/>
     </row>
-    <row r="3" spans="1:21" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" s="9" customFormat="1" ht="60" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>49</v>
@@ -1186,7 +1249,7 @@
       </c>
       <c r="U3" s="28"/>
     </row>
-    <row r="4" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="17"/>
@@ -1209,7 +1272,7 @@
       <c r="T4" s="27"/>
       <c r="U4" s="28"/>
     </row>
-    <row r="5" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17"/>
@@ -1232,7 +1295,7 @@
       <c r="T5" s="27"/>
       <c r="U5" s="28"/>
     </row>
-    <row r="6" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17"/>
@@ -1255,7 +1318,7 @@
       <c r="T6" s="27"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17"/>
@@ -1278,7 +1341,7 @@
       <c r="T7" s="27"/>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17"/>
@@ -1301,7 +1364,7 @@
       <c r="T8" s="27"/>
       <c r="U8" s="28"/>
     </row>
-    <row r="9" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="17"/>
@@ -1324,7 +1387,7 @@
       <c r="T9" s="27"/>
       <c r="U9" s="28"/>
     </row>
-    <row r="10" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="17"/>
@@ -1347,7 +1410,7 @@
       <c r="T10" s="27"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="17"/>
@@ -1370,7 +1433,7 @@
       <c r="T11" s="27"/>
       <c r="U11" s="28"/>
     </row>
-    <row r="12" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
@@ -1393,7 +1456,7 @@
       <c r="T12" s="27"/>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="17"/>
@@ -1416,7 +1479,7 @@
       <c r="T13" s="27"/>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="17"/>
@@ -1439,7 +1502,7 @@
       <c r="T14" s="27"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
@@ -1462,7 +1525,7 @@
       <c r="T15" s="27"/>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="17"/>
@@ -1485,7 +1548,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="28"/>
     </row>
-    <row r="17" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="17"/>
@@ -1508,7 +1571,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="28"/>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="17"/>
@@ -1531,7 +1594,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="17"/>
@@ -1554,7 +1617,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="28"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="17"/>
@@ -1577,7 +1640,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="28"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="17"/>
@@ -1600,7 +1663,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="28"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -1623,7 +1686,7 @@
       <c r="T22" s="19"/>
       <c r="U22" s="28"/>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -1646,7 +1709,7 @@
       <c r="T23" s="19"/>
       <c r="U23" s="28"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -1668,7 +1731,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="22"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -1690,7 +1753,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="22"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -1712,7 +1775,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -1734,7 +1797,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="22"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -1756,7 +1819,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="22"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -1778,7 +1841,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="22"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -1800,7 +1863,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -1822,7 +1885,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -1844,7 +1907,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" ht="16.5">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -1866,7 +1929,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" ht="16.5">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -1888,7 +1951,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" ht="16.5">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -1910,7 +1973,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" ht="16.5">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -1932,7 +1995,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="16.5">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
@@ -1954,7 +2017,7 @@
       <c r="S37" s="21"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
@@ -1976,7 +2039,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -1998,7 +2061,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="22"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -2020,7 +2083,7 @@
       <c r="S40" s="21"/>
       <c r="T40" s="22"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
@@ -2042,7 +2105,7 @@
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -2064,7 +2127,7 @@
       <c r="S42" s="21"/>
       <c r="T42" s="22"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -2086,7 +2149,7 @@
       <c r="S43" s="21"/>
       <c r="T43" s="22"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -2108,7 +2171,7 @@
       <c r="S44" s="21"/>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2130,7 +2193,7 @@
       <c r="S45" s="21"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -2152,7 +2215,7 @@
       <c r="S46" s="21"/>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -2174,7 +2237,7 @@
       <c r="S47" s="21"/>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -2196,7 +2259,7 @@
       <c r="S48" s="21"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -2218,7 +2281,7 @@
       <c r="S49" s="21"/>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" ht="16.5">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -2240,7 +2303,7 @@
       <c r="S50" s="21"/>
       <c r="T50" s="22"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" ht="16.5">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -2262,7 +2325,7 @@
       <c r="S51" s="21"/>
       <c r="T51" s="22"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" ht="16.5">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -2284,7 +2347,7 @@
       <c r="S52" s="21"/>
       <c r="T52" s="22"/>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" ht="16.5">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -2306,7 +2369,7 @@
       <c r="S53" s="21"/>
       <c r="T53" s="22"/>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" ht="16.5">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -2328,7 +2391,7 @@
       <c r="S54" s="21"/>
       <c r="T54" s="22"/>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" ht="16.5">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -2350,7 +2413,7 @@
       <c r="S55" s="21"/>
       <c r="T55" s="22"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" ht="16.5">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -2372,7 +2435,7 @@
       <c r="S56" s="21"/>
       <c r="T56" s="22"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" ht="16.5">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -2394,7 +2457,7 @@
       <c r="S57" s="21"/>
       <c r="T57" s="22"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" ht="16.5">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -2416,7 +2479,7 @@
       <c r="S58" s="21"/>
       <c r="T58" s="22"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" ht="16.5">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -2438,7 +2501,7 @@
       <c r="S59" s="21"/>
       <c r="T59" s="22"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" ht="16.5">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -2460,7 +2523,7 @@
       <c r="S60" s="21"/>
       <c r="T60" s="22"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="16.5">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -2482,7 +2545,7 @@
       <c r="S61" s="21"/>
       <c r="T61" s="22"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="16.5">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -2504,7 +2567,7 @@
       <c r="S62" s="21"/>
       <c r="T62" s="22"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="16.5">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -2526,7 +2589,7 @@
       <c r="S63" s="21"/>
       <c r="T63" s="22"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="16.5">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -2548,7 +2611,7 @@
       <c r="S64" s="21"/>
       <c r="T64" s="22"/>
     </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" ht="16.5">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -2570,7 +2633,7 @@
       <c r="S65" s="21"/>
       <c r="T65" s="22"/>
     </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" ht="16.5">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -2592,7 +2655,7 @@
       <c r="S66" s="21"/>
       <c r="T66" s="22"/>
     </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" ht="16.5">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -2614,7 +2677,7 @@
       <c r="S67" s="21"/>
       <c r="T67" s="22"/>
     </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" ht="16.5">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -2636,7 +2699,7 @@
       <c r="S68" s="21"/>
       <c r="T68" s="22"/>
     </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" ht="16.5">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -2658,7 +2721,7 @@
       <c r="S69" s="21"/>
       <c r="T69" s="22"/>
     </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" ht="16.5">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -2680,7 +2743,7 @@
       <c r="S70" s="21"/>
       <c r="T70" s="22"/>
     </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" ht="16.5">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -2702,7 +2765,7 @@
       <c r="S71" s="21"/>
       <c r="T71" s="22"/>
     </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" ht="16.5">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -2724,7 +2787,7 @@
       <c r="S72" s="21"/>
       <c r="T72" s="22"/>
     </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" ht="16.5">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -2746,7 +2809,7 @@
       <c r="S73" s="21"/>
       <c r="T73" s="22"/>
     </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" ht="16.5">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -2768,7 +2831,7 @@
       <c r="S74" s="21"/>
       <c r="T74" s="22"/>
     </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" ht="16.5">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -2790,7 +2853,7 @@
       <c r="S75" s="21"/>
       <c r="T75" s="22"/>
     </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" ht="16.5">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -2812,7 +2875,7 @@
       <c r="S76" s="21"/>
       <c r="T76" s="22"/>
     </row>
-    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" ht="16.5">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -2834,7 +2897,7 @@
       <c r="S77" s="21"/>
       <c r="T77" s="22"/>
     </row>
-    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" ht="16.5">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -2856,7 +2919,7 @@
       <c r="S78" s="21"/>
       <c r="T78" s="22"/>
     </row>
-    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" ht="16.5">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -2878,7 +2941,7 @@
       <c r="S79" s="21"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" ht="16.5">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -2900,7 +2963,7 @@
       <c r="S80" s="21"/>
       <c r="T80" s="22"/>
     </row>
-    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" ht="16.5">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -2922,7 +2985,7 @@
       <c r="S81" s="21"/>
       <c r="T81" s="22"/>
     </row>
-    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" ht="16.5">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -2944,7 +3007,7 @@
       <c r="S82" s="21"/>
       <c r="T82" s="22"/>
     </row>
-    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" ht="16.5">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -2966,7 +3029,7 @@
       <c r="S83" s="21"/>
       <c r="T83" s="22"/>
     </row>
-    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" ht="16.5">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -2988,7 +3051,7 @@
       <c r="S84" s="21"/>
       <c r="T84" s="22"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -3010,7 +3073,7 @@
       <c r="S85" s="21"/>
       <c r="T85" s="22"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -3032,7 +3095,7 @@
       <c r="S86" s="21"/>
       <c r="T86" s="22"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -3054,7 +3117,7 @@
       <c r="S87" s="21"/>
       <c r="T87" s="22"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -3076,7 +3139,7 @@
       <c r="S88" s="21"/>
       <c r="T88" s="22"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -3098,7 +3161,7 @@
       <c r="S89" s="21"/>
       <c r="T89" s="22"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -3120,7 +3183,7 @@
       <c r="S90" s="21"/>
       <c r="T90" s="22"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -3142,7 +3205,7 @@
       <c r="S91" s="21"/>
       <c r="T91" s="22"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -3164,7 +3227,7 @@
       <c r="S92" s="21"/>
       <c r="T92" s="22"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -3186,7 +3249,7 @@
       <c r="S93" s="21"/>
       <c r="T93" s="22"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -3208,7 +3271,7 @@
       <c r="S94" s="21"/>
       <c r="T94" s="22"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -3230,7 +3293,7 @@
       <c r="S95" s="21"/>
       <c r="T95" s="22"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -3252,7 +3315,7 @@
       <c r="S96" s="21"/>
       <c r="T96" s="22"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:20">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -3274,7 +3337,7 @@
       <c r="S97" s="21"/>
       <c r="T97" s="22"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:20">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -3296,7 +3359,7 @@
       <c r="S98" s="21"/>
       <c r="T98" s="22"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:20">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -3318,7 +3381,7 @@
       <c r="S99" s="21"/>
       <c r="T99" s="22"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:20">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -3340,7 +3403,7 @@
       <c r="S100" s="21"/>
       <c r="T100" s="22"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:20">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -3362,7 +3425,7 @@
       <c r="S101" s="21"/>
       <c r="T101" s="22"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:20">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -3384,7 +3447,7 @@
       <c r="S102" s="21"/>
       <c r="T102" s="22"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:20">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -3406,7 +3469,7 @@
       <c r="S103" s="21"/>
       <c r="T103" s="22"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:20">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -3428,7 +3491,7 @@
       <c r="S104" s="21"/>
       <c r="T104" s="22"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:20">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -3450,7 +3513,7 @@
       <c r="S105" s="21"/>
       <c r="T105" s="22"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:20">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
@@ -3472,7 +3535,7 @@
       <c r="S106" s="21"/>
       <c r="T106" s="22"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:20">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
@@ -3494,7 +3557,7 @@
       <c r="S107" s="21"/>
       <c r="T107" s="22"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:20">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -3516,7 +3579,7 @@
       <c r="S108" s="21"/>
       <c r="T108" s="22"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:20">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -3538,7 +3601,7 @@
       <c r="S109" s="21"/>
       <c r="T109" s="22"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:20">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -3560,7 +3623,7 @@
       <c r="S110" s="21"/>
       <c r="T110" s="22"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:20">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -3582,7 +3645,7 @@
       <c r="S111" s="21"/>
       <c r="T111" s="22"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:20">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -3604,7 +3667,7 @@
       <c r="S112" s="21"/>
       <c r="T112" s="22"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:20">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -3626,7 +3689,7 @@
       <c r="S113" s="21"/>
       <c r="T113" s="22"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:20">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -3648,7 +3711,7 @@
       <c r="S114" s="21"/>
       <c r="T114" s="22"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:20">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -3670,7 +3733,7 @@
       <c r="S115" s="21"/>
       <c r="T115" s="22"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:20">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -3692,7 +3755,7 @@
       <c r="S116" s="21"/>
       <c r="T116" s="22"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:20">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -3714,7 +3777,7 @@
       <c r="S117" s="21"/>
       <c r="T117" s="22"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:20">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22"/>
@@ -3736,7 +3799,7 @@
       <c r="S118" s="21"/>
       <c r="T118" s="22"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:20">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="22"/>
@@ -3758,7 +3821,7 @@
       <c r="S119" s="21"/>
       <c r="T119" s="22"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:20">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="22"/>
@@ -3780,7 +3843,7 @@
       <c r="S120" s="21"/>
       <c r="T120" s="22"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:20">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22"/>
@@ -3802,7 +3865,7 @@
       <c r="S121" s="21"/>
       <c r="T121" s="22"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:20">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="22"/>
@@ -3824,7 +3887,7 @@
       <c r="S122" s="21"/>
       <c r="T122" s="22"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:20">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="22"/>
@@ -3846,7 +3909,7 @@
       <c r="S123" s="21"/>
       <c r="T123" s="22"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:20">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22"/>
@@ -3868,7 +3931,7 @@
       <c r="S124" s="21"/>
       <c r="T124" s="22"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:20">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="22"/>
@@ -3890,7 +3953,7 @@
       <c r="S125" s="21"/>
       <c r="T125" s="22"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:20">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="22"/>
@@ -3912,7 +3975,7 @@
       <c r="S126" s="21"/>
       <c r="T126" s="22"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:20">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="22"/>
@@ -3934,7 +3997,7 @@
       <c r="S127" s="21"/>
       <c r="T127" s="22"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:20">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="22"/>
@@ -3956,7 +4019,7 @@
       <c r="S128" s="21"/>
       <c r="T128" s="22"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:20">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="22"/>
@@ -3978,7 +4041,7 @@
       <c r="S129" s="21"/>
       <c r="T129" s="22"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:20">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="22"/>
@@ -4000,7 +4063,7 @@
       <c r="S130" s="21"/>
       <c r="T130" s="22"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:20">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="22"/>
@@ -4022,7 +4085,7 @@
       <c r="S131" s="21"/>
       <c r="T131" s="22"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:20">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="22"/>
@@ -4044,7 +4107,7 @@
       <c r="S132" s="21"/>
       <c r="T132" s="22"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:20">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="22"/>
@@ -4066,7 +4129,7 @@
       <c r="S133" s="21"/>
       <c r="T133" s="22"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:20">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="22"/>
@@ -4088,7 +4151,7 @@
       <c r="S134" s="21"/>
       <c r="T134" s="22"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:20">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="22"/>
@@ -4110,7 +4173,7 @@
       <c r="S135" s="21"/>
       <c r="T135" s="22"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:20">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="22"/>
@@ -4132,7 +4195,7 @@
       <c r="S136" s="21"/>
       <c r="T136" s="22"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:20">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="22"/>
@@ -4154,7 +4217,7 @@
       <c r="S137" s="21"/>
       <c r="T137" s="22"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:20">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="22"/>
@@ -4176,7 +4239,7 @@
       <c r="S138" s="21"/>
       <c r="T138" s="22"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:20">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="22"/>
@@ -4198,7 +4261,7 @@
       <c r="S139" s="21"/>
       <c r="T139" s="22"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:20">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="22"/>
@@ -4220,7 +4283,7 @@
       <c r="S140" s="21"/>
       <c r="T140" s="22"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:20">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="22"/>
@@ -4242,7 +4305,7 @@
       <c r="S141" s="21"/>
       <c r="T141" s="22"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:20">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="22"/>
@@ -4264,7 +4327,7 @@
       <c r="S142" s="21"/>
       <c r="T142" s="22"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:20">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="22"/>
@@ -4286,7 +4349,7 @@
       <c r="S143" s="21"/>
       <c r="T143" s="22"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:20">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="22"/>
@@ -4308,7 +4371,7 @@
       <c r="S144" s="21"/>
       <c r="T144" s="22"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:20">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="22"/>
@@ -4327,7 +4390,7 @@
       <c r="P145" s="22"/>
       <c r="T145" s="22"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:20">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="22"/>
@@ -4346,7 +4409,7 @@
       <c r="P146" s="22"/>
       <c r="T146" s="22"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:20">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="22"/>
@@ -4365,7 +4428,7 @@
       <c r="P147" s="22"/>
       <c r="T147" s="22"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:20">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="22"/>
@@ -4384,7 +4447,7 @@
       <c r="P148" s="22"/>
       <c r="T148" s="22"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:20">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="22"/>
@@ -4403,7 +4466,7 @@
       <c r="P149" s="22"/>
       <c r="T149" s="22"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:20">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="22"/>
@@ -4422,7 +4485,7 @@
       <c r="P150" s="22"/>
       <c r="T150" s="22"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:20">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="22"/>
@@ -4441,7 +4504,7 @@
       <c r="P151" s="22"/>
       <c r="T151" s="22"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:20">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="22"/>
@@ -4460,7 +4523,7 @@
       <c r="P152" s="22"/>
       <c r="T152" s="22"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:20">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="22"/>
@@ -4479,7 +4542,7 @@
       <c r="P153" s="22"/>
       <c r="T153" s="22"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:20">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="22"/>
@@ -4498,7 +4561,7 @@
       <c r="P154" s="22"/>
       <c r="T154" s="22"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:20">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="22"/>
@@ -4517,7 +4580,7 @@
       <c r="P155" s="22"/>
       <c r="T155" s="22"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:20">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="22"/>
@@ -4536,7 +4599,7 @@
       <c r="P156" s="22"/>
       <c r="T156" s="22"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:20">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="22"/>
@@ -4555,7 +4618,7 @@
       <c r="P157" s="22"/>
       <c r="T157" s="22"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:20">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="22"/>
@@ -4574,7 +4637,7 @@
       <c r="P158" s="22"/>
       <c r="T158" s="22"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:20">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="22"/>
@@ -4593,7 +4656,7 @@
       <c r="P159" s="22"/>
       <c r="T159" s="22"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:20">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="22"/>
@@ -4612,7 +4675,7 @@
       <c r="P160" s="22"/>
       <c r="T160" s="22"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:20">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="22"/>
@@ -4631,7 +4694,7 @@
       <c r="P161" s="22"/>
       <c r="T161" s="22"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:20">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="22"/>
@@ -4650,7 +4713,7 @@
       <c r="P162" s="22"/>
       <c r="T162" s="22"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:20">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="22"/>
@@ -4669,7 +4732,7 @@
       <c r="P163" s="22"/>
       <c r="T163" s="22"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:20">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22"/>
@@ -4688,7 +4751,7 @@
       <c r="P164" s="22"/>
       <c r="T164" s="22"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:20">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="22"/>
@@ -4707,7 +4770,7 @@
       <c r="P165" s="22"/>
       <c r="T165" s="22"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:20">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="22"/>
@@ -4726,7 +4789,7 @@
       <c r="P166" s="22"/>
       <c r="T166" s="22"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:20">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="22"/>
@@ -4745,7 +4808,7 @@
       <c r="P167" s="22"/>
       <c r="T167" s="22"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:20">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="22"/>
@@ -4764,7 +4827,7 @@
       <c r="P168" s="22"/>
       <c r="T168" s="22"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:20">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="22"/>
@@ -4783,7 +4846,7 @@
       <c r="P169" s="22"/>
       <c r="T169" s="22"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:20">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="22"/>
@@ -4802,7 +4865,7 @@
       <c r="P170" s="22"/>
       <c r="T170" s="22"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:20">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="22"/>
@@ -4821,7 +4884,7 @@
       <c r="P171" s="22"/>
       <c r="T171" s="22"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:20">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="22"/>
@@ -4840,7 +4903,7 @@
       <c r="P172" s="22"/>
       <c r="T172" s="22"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:20">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="22"/>
@@ -4859,7 +4922,7 @@
       <c r="P173" s="22"/>
       <c r="T173" s="22"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:20">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="22"/>
@@ -4878,7 +4941,7 @@
       <c r="P174" s="22"/>
       <c r="T174" s="22"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:20">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="22"/>
@@ -4897,7 +4960,7 @@
       <c r="P175" s="22"/>
       <c r="T175" s="22"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:20">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="22"/>
@@ -4916,7 +4979,7 @@
       <c r="P176" s="22"/>
       <c r="T176" s="22"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:20">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="22"/>
@@ -4935,7 +4998,7 @@
       <c r="P177" s="22"/>
       <c r="T177" s="22"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:20">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -4954,7 +5017,7 @@
       <c r="P178" s="22"/>
       <c r="T178" s="22"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:20">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="22"/>
@@ -4982,14 +5045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5000,7 +5063,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5026,7 +5089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5036,7 +5099,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5046,7 +5109,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5056,7 +5119,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5066,7 +5129,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5076,7 +5139,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5086,7 +5149,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5096,7 +5159,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5106,7 +5169,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5116,7 +5179,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5126,7 +5189,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5136,7 +5199,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5146,7 +5209,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5156,7 +5219,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5166,7 +5229,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5176,7 +5239,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5186,7 +5249,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5196,7 +5259,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5218,18 +5281,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="7" style="40" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="40" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="40" customWidth="1"/>
     <col min="5" max="5" width="35" style="40" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="40" customWidth="1"/>
@@ -6061,7 +6124,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
@@ -6078,7 +6141,7 @@
       <c r="L1" s="44"/>
       <c r="M1" s="45"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -6093,7 +6156,7 @@
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
@@ -6134,7 +6197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6149,7 +6212,7 @@
       <c r="L4" s="35"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A5" s="35"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -6164,7 +6227,7 @@
       <c r="L5" s="42"/>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6179,7 +6242,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -6194,7 +6257,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -6209,7 +6272,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -6224,7 +6287,7 @@
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -6239,7 +6302,7 @@
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -6254,7 +6317,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -6269,7 +6332,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>

--- a/VersionRecords/Version 5.0.3.5 20161018/版本Bug和特性计划及评审表v5.0.3.5_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.3.5 20161018/版本Bug和特性计划及评审表v5.0.3.5_磐石组.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version 5.0.3.5 20161018\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.3.5新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
-    <sheet name="配置文件（生产环境" sheetId="3" r:id="rId3"/>
+    <sheet name="配置文件（生产环境）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.3.5新特性|Fix Bug'!$A$1:$T$3</definedName>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -211,13 +216,57 @@
   <si>
     <t>New Features</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.3.5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+  </si>
+  <si>
+    <t>jdbc.url_repo</t>
+  </si>
+  <si>
+    <t>jdbc.url_repo=jdbc\:mysql\://172.16.0.15\:3306/mogoroomdb?useUnicode\=true&amp;amp;characterEncoding\=UTF-8</t>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>因系统升级临时修改配置，升级完成后需要重新配置回来</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>因数据库服务器.8升级，需要先将该服务器的所有查询指向数据库服务器15</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -457,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,6 +651,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -643,74 +695,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -730,7 +714,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1050,14 +1034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="10" customWidth="1"/>
@@ -1083,7 +1067,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="27">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" ht="61.5" customHeight="1">
+    <row r="2" spans="1:21" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1196,7 +1180,7 @@
       <c r="T2" s="27"/>
       <c r="U2" s="28"/>
     </row>
-    <row r="3" spans="1:21" s="9" customFormat="1" ht="60" customHeight="1">
+    <row r="3" spans="1:21" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1249,7 +1233,7 @@
       </c>
       <c r="U3" s="28"/>
     </row>
-    <row r="4" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="4" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="17"/>
@@ -1272,7 +1256,7 @@
       <c r="T4" s="27"/>
       <c r="U4" s="28"/>
     </row>
-    <row r="5" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="5" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17"/>
@@ -1295,7 +1279,7 @@
       <c r="T5" s="27"/>
       <c r="U5" s="28"/>
     </row>
-    <row r="6" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="6" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17"/>
@@ -1318,7 +1302,7 @@
       <c r="T6" s="27"/>
       <c r="U6" s="28"/>
     </row>
-    <row r="7" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="7" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17"/>
@@ -1341,7 +1325,7 @@
       <c r="T7" s="27"/>
       <c r="U7" s="28"/>
     </row>
-    <row r="8" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17"/>
@@ -1364,7 +1348,7 @@
       <c r="T8" s="27"/>
       <c r="U8" s="28"/>
     </row>
-    <row r="9" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="17"/>
@@ -1387,7 +1371,7 @@
       <c r="T9" s="27"/>
       <c r="U9" s="28"/>
     </row>
-    <row r="10" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="10" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="17"/>
@@ -1410,7 +1394,7 @@
       <c r="T10" s="27"/>
       <c r="U10" s="28"/>
     </row>
-    <row r="11" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="17"/>
@@ -1433,7 +1417,7 @@
       <c r="T11" s="27"/>
       <c r="U11" s="28"/>
     </row>
-    <row r="12" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="12" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
@@ -1456,7 +1440,7 @@
       <c r="T12" s="27"/>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="13" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="17"/>
@@ -1479,7 +1463,7 @@
       <c r="T13" s="27"/>
       <c r="U13" s="28"/>
     </row>
-    <row r="14" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="17"/>
@@ -1502,7 +1486,7 @@
       <c r="T14" s="27"/>
       <c r="U14" s="28"/>
     </row>
-    <row r="15" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
@@ -1525,7 +1509,7 @@
       <c r="T15" s="27"/>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="17"/>
@@ -1548,7 +1532,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="28"/>
     </row>
-    <row r="17" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="17" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="17"/>
@@ -1571,7 +1555,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="28"/>
     </row>
-    <row r="18" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="17"/>
@@ -1594,7 +1578,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="28"/>
     </row>
-    <row r="19" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="17"/>
@@ -1617,7 +1601,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="28"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="17"/>
@@ -1640,7 +1624,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="28"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="17"/>
@@ -1663,7 +1647,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="28"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -1686,7 +1670,7 @@
       <c r="T22" s="19"/>
       <c r="U22" s="28"/>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" ht="16.5">
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -1709,7 +1693,7 @@
       <c r="T23" s="19"/>
       <c r="U23" s="28"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -1731,7 +1715,7 @@
       <c r="S24" s="21"/>
       <c r="T24" s="22"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -1753,7 +1737,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="22"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -1775,7 +1759,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -1797,7 +1781,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="22"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -1819,7 +1803,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="22"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -1841,7 +1825,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="22"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -1863,7 +1847,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -1885,7 +1869,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -1907,7 +1891,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" ht="16.5">
+    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -1929,7 +1913,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" spans="1:20" ht="16.5">
+    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -1951,7 +1935,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" spans="1:20" ht="16.5">
+    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -1973,7 +1957,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5">
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -1995,7 +1979,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5">
+    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
@@ -2017,7 +2001,7 @@
       <c r="S37" s="21"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5">
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
@@ -2039,7 +2023,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5">
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -2061,7 +2045,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="22"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5">
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -2083,7 +2067,7 @@
       <c r="S40" s="21"/>
       <c r="T40" s="22"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5">
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
@@ -2105,7 +2089,7 @@
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5">
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -2127,7 +2111,7 @@
       <c r="S42" s="21"/>
       <c r="T42" s="22"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
@@ -2149,7 +2133,7 @@
       <c r="S43" s="21"/>
       <c r="T43" s="22"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -2171,7 +2155,7 @@
       <c r="S44" s="21"/>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5">
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2193,7 +2177,7 @@
       <c r="S45" s="21"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -2215,7 +2199,7 @@
       <c r="S46" s="21"/>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -2237,7 +2221,7 @@
       <c r="S47" s="21"/>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -2259,7 +2243,7 @@
       <c r="S48" s="21"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" spans="1:20" ht="16.5">
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -2281,7 +2265,7 @@
       <c r="S49" s="21"/>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5">
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -2303,7 +2287,7 @@
       <c r="S50" s="21"/>
       <c r="T50" s="22"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5">
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -2325,7 +2309,7 @@
       <c r="S51" s="21"/>
       <c r="T51" s="22"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5">
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -2347,7 +2331,7 @@
       <c r="S52" s="21"/>
       <c r="T52" s="22"/>
     </row>
-    <row r="53" spans="1:20" ht="16.5">
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
@@ -2369,7 +2353,7 @@
       <c r="S53" s="21"/>
       <c r="T53" s="22"/>
     </row>
-    <row r="54" spans="1:20" ht="16.5">
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
@@ -2391,7 +2375,7 @@
       <c r="S54" s="21"/>
       <c r="T54" s="22"/>
     </row>
-    <row r="55" spans="1:20" ht="16.5">
+    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -2413,7 +2397,7 @@
       <c r="S55" s="21"/>
       <c r="T55" s="22"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5">
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22"/>
@@ -2435,7 +2419,7 @@
       <c r="S56" s="21"/>
       <c r="T56" s="22"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="22"/>
@@ -2457,7 +2441,7 @@
       <c r="S57" s="21"/>
       <c r="T57" s="22"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5">
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -2479,7 +2463,7 @@
       <c r="S58" s="21"/>
       <c r="T58" s="22"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -2501,7 +2485,7 @@
       <c r="S59" s="21"/>
       <c r="T59" s="22"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -2523,7 +2507,7 @@
       <c r="S60" s="21"/>
       <c r="T60" s="22"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -2545,7 +2529,7 @@
       <c r="S61" s="21"/>
       <c r="T61" s="22"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -2567,7 +2551,7 @@
       <c r="S62" s="21"/>
       <c r="T62" s="22"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -2589,7 +2573,7 @@
       <c r="S63" s="21"/>
       <c r="T63" s="22"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
@@ -2611,7 +2595,7 @@
       <c r="S64" s="21"/>
       <c r="T64" s="22"/>
     </row>
-    <row r="65" spans="1:20" ht="16.5">
+    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -2633,7 +2617,7 @@
       <c r="S65" s="21"/>
       <c r="T65" s="22"/>
     </row>
-    <row r="66" spans="1:20" ht="16.5">
+    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="22"/>
@@ -2655,7 +2639,7 @@
       <c r="S66" s="21"/>
       <c r="T66" s="22"/>
     </row>
-    <row r="67" spans="1:20" ht="16.5">
+    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="22"/>
@@ -2677,7 +2661,7 @@
       <c r="S67" s="21"/>
       <c r="T67" s="22"/>
     </row>
-    <row r="68" spans="1:20" ht="16.5">
+    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="22"/>
@@ -2699,7 +2683,7 @@
       <c r="S68" s="21"/>
       <c r="T68" s="22"/>
     </row>
-    <row r="69" spans="1:20" ht="16.5">
+    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="22"/>
@@ -2721,7 +2705,7 @@
       <c r="S69" s="21"/>
       <c r="T69" s="22"/>
     </row>
-    <row r="70" spans="1:20" ht="16.5">
+    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -2743,7 +2727,7 @@
       <c r="S70" s="21"/>
       <c r="T70" s="22"/>
     </row>
-    <row r="71" spans="1:20" ht="16.5">
+    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22"/>
@@ -2765,7 +2749,7 @@
       <c r="S71" s="21"/>
       <c r="T71" s="22"/>
     </row>
-    <row r="72" spans="1:20" ht="16.5">
+    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22"/>
@@ -2787,7 +2771,7 @@
       <c r="S72" s="21"/>
       <c r="T72" s="22"/>
     </row>
-    <row r="73" spans="1:20" ht="16.5">
+    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="22"/>
@@ -2809,7 +2793,7 @@
       <c r="S73" s="21"/>
       <c r="T73" s="22"/>
     </row>
-    <row r="74" spans="1:20" ht="16.5">
+    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -2831,7 +2815,7 @@
       <c r="S74" s="21"/>
       <c r="T74" s="22"/>
     </row>
-    <row r="75" spans="1:20" ht="16.5">
+    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -2853,7 +2837,7 @@
       <c r="S75" s="21"/>
       <c r="T75" s="22"/>
     </row>
-    <row r="76" spans="1:20" ht="16.5">
+    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="22"/>
@@ -2875,7 +2859,7 @@
       <c r="S76" s="21"/>
       <c r="T76" s="22"/>
     </row>
-    <row r="77" spans="1:20" ht="16.5">
+    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="22"/>
@@ -2897,7 +2881,7 @@
       <c r="S77" s="21"/>
       <c r="T77" s="22"/>
     </row>
-    <row r="78" spans="1:20" ht="16.5">
+    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="22"/>
@@ -2919,7 +2903,7 @@
       <c r="S78" s="21"/>
       <c r="T78" s="22"/>
     </row>
-    <row r="79" spans="1:20" ht="16.5">
+    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22"/>
@@ -2941,7 +2925,7 @@
       <c r="S79" s="21"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:20" ht="16.5">
+    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -2963,7 +2947,7 @@
       <c r="S80" s="21"/>
       <c r="T80" s="22"/>
     </row>
-    <row r="81" spans="1:20" ht="16.5">
+    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22"/>
@@ -2985,7 +2969,7 @@
       <c r="S81" s="21"/>
       <c r="T81" s="22"/>
     </row>
-    <row r="82" spans="1:20" ht="16.5">
+    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="22"/>
@@ -3007,7 +2991,7 @@
       <c r="S82" s="21"/>
       <c r="T82" s="22"/>
     </row>
-    <row r="83" spans="1:20" ht="16.5">
+    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22"/>
@@ -3029,7 +3013,7 @@
       <c r="S83" s="21"/>
       <c r="T83" s="22"/>
     </row>
-    <row r="84" spans="1:20" ht="16.5">
+    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
@@ -3051,7 +3035,7 @@
       <c r="S84" s="21"/>
       <c r="T84" s="22"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -3073,7 +3057,7 @@
       <c r="S85" s="21"/>
       <c r="T85" s="22"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="22"/>
@@ -3095,7 +3079,7 @@
       <c r="S86" s="21"/>
       <c r="T86" s="22"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
@@ -3117,7 +3101,7 @@
       <c r="S87" s="21"/>
       <c r="T87" s="22"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="22"/>
@@ -3139,7 +3123,7 @@
       <c r="S88" s="21"/>
       <c r="T88" s="22"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="22"/>
@@ -3161,7 +3145,7 @@
       <c r="S89" s="21"/>
       <c r="T89" s="22"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -3183,7 +3167,7 @@
       <c r="S90" s="21"/>
       <c r="T90" s="22"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
@@ -3205,7 +3189,7 @@
       <c r="S91" s="21"/>
       <c r="T91" s="22"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="22"/>
@@ -3227,7 +3211,7 @@
       <c r="S92" s="21"/>
       <c r="T92" s="22"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="22"/>
@@ -3249,7 +3233,7 @@
       <c r="S93" s="21"/>
       <c r="T93" s="22"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -3271,7 +3255,7 @@
       <c r="S94" s="21"/>
       <c r="T94" s="22"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -3293,7 +3277,7 @@
       <c r="S95" s="21"/>
       <c r="T95" s="22"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="22"/>
@@ -3315,7 +3299,7 @@
       <c r="S96" s="21"/>
       <c r="T96" s="22"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -3337,7 +3321,7 @@
       <c r="S97" s="21"/>
       <c r="T97" s="22"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="22"/>
@@ -3359,7 +3343,7 @@
       <c r="S98" s="21"/>
       <c r="T98" s="22"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -3381,7 +3365,7 @@
       <c r="S99" s="21"/>
       <c r="T99" s="22"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -3403,7 +3387,7 @@
       <c r="S100" s="21"/>
       <c r="T100" s="22"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="22"/>
@@ -3425,7 +3409,7 @@
       <c r="S101" s="21"/>
       <c r="T101" s="22"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="22"/>
@@ -3447,7 +3431,7 @@
       <c r="S102" s="21"/>
       <c r="T102" s="22"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="22"/>
@@ -3469,7 +3453,7 @@
       <c r="S103" s="21"/>
       <c r="T103" s="22"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
@@ -3491,7 +3475,7 @@
       <c r="S104" s="21"/>
       <c r="T104" s="22"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -3513,7 +3497,7 @@
       <c r="S105" s="21"/>
       <c r="T105" s="22"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="22"/>
@@ -3535,7 +3519,7 @@
       <c r="S106" s="21"/>
       <c r="T106" s="22"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="22"/>
@@ -3557,7 +3541,7 @@
       <c r="S107" s="21"/>
       <c r="T107" s="22"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="22"/>
@@ -3579,7 +3563,7 @@
       <c r="S108" s="21"/>
       <c r="T108" s="22"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="22"/>
@@ -3601,7 +3585,7 @@
       <c r="S109" s="21"/>
       <c r="T109" s="22"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -3623,7 +3607,7 @@
       <c r="S110" s="21"/>
       <c r="T110" s="22"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="22"/>
@@ -3645,7 +3629,7 @@
       <c r="S111" s="21"/>
       <c r="T111" s="22"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="22"/>
@@ -3667,7 +3651,7 @@
       <c r="S112" s="21"/>
       <c r="T112" s="22"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22"/>
@@ -3689,7 +3673,7 @@
       <c r="S113" s="21"/>
       <c r="T113" s="22"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
@@ -3711,7 +3695,7 @@
       <c r="S114" s="21"/>
       <c r="T114" s="22"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22"/>
@@ -3733,7 +3717,7 @@
       <c r="S115" s="21"/>
       <c r="T115" s="22"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="22"/>
@@ -3755,7 +3739,7 @@
       <c r="S116" s="21"/>
       <c r="T116" s="22"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="22"/>
@@ -3777,7 +3761,7 @@
       <c r="S117" s="21"/>
       <c r="T117" s="22"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22"/>
@@ -3799,7 +3783,7 @@
       <c r="S118" s="21"/>
       <c r="T118" s="22"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="22"/>
@@ -3821,7 +3805,7 @@
       <c r="S119" s="21"/>
       <c r="T119" s="22"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="22"/>
@@ -3843,7 +3827,7 @@
       <c r="S120" s="21"/>
       <c r="T120" s="22"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22"/>
@@ -3865,7 +3849,7 @@
       <c r="S121" s="21"/>
       <c r="T121" s="22"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="22"/>
@@ -3887,7 +3871,7 @@
       <c r="S122" s="21"/>
       <c r="T122" s="22"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="22"/>
@@ -3909,7 +3893,7 @@
       <c r="S123" s="21"/>
       <c r="T123" s="22"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22"/>
@@ -3931,7 +3915,7 @@
       <c r="S124" s="21"/>
       <c r="T124" s="22"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="22"/>
@@ -3953,7 +3937,7 @@
       <c r="S125" s="21"/>
       <c r="T125" s="22"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="22"/>
@@ -3975,7 +3959,7 @@
       <c r="S126" s="21"/>
       <c r="T126" s="22"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="22"/>
@@ -3997,7 +3981,7 @@
       <c r="S127" s="21"/>
       <c r="T127" s="22"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="22"/>
@@ -4019,7 +4003,7 @@
       <c r="S128" s="21"/>
       <c r="T128" s="22"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="22"/>
@@ -4041,7 +4025,7 @@
       <c r="S129" s="21"/>
       <c r="T129" s="22"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="22"/>
@@ -4063,7 +4047,7 @@
       <c r="S130" s="21"/>
       <c r="T130" s="22"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="22"/>
@@ -4085,7 +4069,7 @@
       <c r="S131" s="21"/>
       <c r="T131" s="22"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="22"/>
@@ -4107,7 +4091,7 @@
       <c r="S132" s="21"/>
       <c r="T132" s="22"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="22"/>
@@ -4129,7 +4113,7 @@
       <c r="S133" s="21"/>
       <c r="T133" s="22"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="22"/>
@@ -4151,7 +4135,7 @@
       <c r="S134" s="21"/>
       <c r="T134" s="22"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="22"/>
@@ -4173,7 +4157,7 @@
       <c r="S135" s="21"/>
       <c r="T135" s="22"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="22"/>
@@ -4195,7 +4179,7 @@
       <c r="S136" s="21"/>
       <c r="T136" s="22"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="22"/>
@@ -4217,7 +4201,7 @@
       <c r="S137" s="21"/>
       <c r="T137" s="22"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="22"/>
@@ -4239,7 +4223,7 @@
       <c r="S138" s="21"/>
       <c r="T138" s="22"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="22"/>
@@ -4261,7 +4245,7 @@
       <c r="S139" s="21"/>
       <c r="T139" s="22"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="22"/>
@@ -4283,7 +4267,7 @@
       <c r="S140" s="21"/>
       <c r="T140" s="22"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="22"/>
@@ -4305,7 +4289,7 @@
       <c r="S141" s="21"/>
       <c r="T141" s="22"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="22"/>
@@ -4327,7 +4311,7 @@
       <c r="S142" s="21"/>
       <c r="T142" s="22"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="22"/>
@@ -4349,7 +4333,7 @@
       <c r="S143" s="21"/>
       <c r="T143" s="22"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="22"/>
@@ -4371,7 +4355,7 @@
       <c r="S144" s="21"/>
       <c r="T144" s="22"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="22"/>
@@ -4390,7 +4374,7 @@
       <c r="P145" s="22"/>
       <c r="T145" s="22"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="22"/>
@@ -4409,7 +4393,7 @@
       <c r="P146" s="22"/>
       <c r="T146" s="22"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="22"/>
@@ -4428,7 +4412,7 @@
       <c r="P147" s="22"/>
       <c r="T147" s="22"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="22"/>
@@ -4447,7 +4431,7 @@
       <c r="P148" s="22"/>
       <c r="T148" s="22"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="22"/>
@@ -4466,7 +4450,7 @@
       <c r="P149" s="22"/>
       <c r="T149" s="22"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="22"/>
@@ -4485,7 +4469,7 @@
       <c r="P150" s="22"/>
       <c r="T150" s="22"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="22"/>
@@ -4504,7 +4488,7 @@
       <c r="P151" s="22"/>
       <c r="T151" s="22"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="22"/>
@@ -4523,7 +4507,7 @@
       <c r="P152" s="22"/>
       <c r="T152" s="22"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="22"/>
@@ -4542,7 +4526,7 @@
       <c r="P153" s="22"/>
       <c r="T153" s="22"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="22"/>
@@ -4561,7 +4545,7 @@
       <c r="P154" s="22"/>
       <c r="T154" s="22"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="22"/>
@@ -4580,7 +4564,7 @@
       <c r="P155" s="22"/>
       <c r="T155" s="22"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="22"/>
@@ -4599,7 +4583,7 @@
       <c r="P156" s="22"/>
       <c r="T156" s="22"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="22"/>
@@ -4618,7 +4602,7 @@
       <c r="P157" s="22"/>
       <c r="T157" s="22"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="22"/>
@@ -4637,7 +4621,7 @@
       <c r="P158" s="22"/>
       <c r="T158" s="22"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="22"/>
@@ -4656,7 +4640,7 @@
       <c r="P159" s="22"/>
       <c r="T159" s="22"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="22"/>
@@ -4675,7 +4659,7 @@
       <c r="P160" s="22"/>
       <c r="T160" s="22"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="22"/>
@@ -4694,7 +4678,7 @@
       <c r="P161" s="22"/>
       <c r="T161" s="22"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="22"/>
@@ -4713,7 +4697,7 @@
       <c r="P162" s="22"/>
       <c r="T162" s="22"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="22"/>
@@ -4732,7 +4716,7 @@
       <c r="P163" s="22"/>
       <c r="T163" s="22"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22"/>
@@ -4751,7 +4735,7 @@
       <c r="P164" s="22"/>
       <c r="T164" s="22"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="22"/>
@@ -4770,7 +4754,7 @@
       <c r="P165" s="22"/>
       <c r="T165" s="22"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="22"/>
@@ -4789,7 +4773,7 @@
       <c r="P166" s="22"/>
       <c r="T166" s="22"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="22"/>
@@ -4808,7 +4792,7 @@
       <c r="P167" s="22"/>
       <c r="T167" s="22"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="22"/>
@@ -4827,7 +4811,7 @@
       <c r="P168" s="22"/>
       <c r="T168" s="22"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="22"/>
@@ -4846,7 +4830,7 @@
       <c r="P169" s="22"/>
       <c r="T169" s="22"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="22"/>
@@ -4865,7 +4849,7 @@
       <c r="P170" s="22"/>
       <c r="T170" s="22"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="22"/>
@@ -4884,7 +4868,7 @@
       <c r="P171" s="22"/>
       <c r="T171" s="22"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="22"/>
@@ -4903,7 +4887,7 @@
       <c r="P172" s="22"/>
       <c r="T172" s="22"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="22"/>
@@ -4922,7 +4906,7 @@
       <c r="P173" s="22"/>
       <c r="T173" s="22"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="22"/>
@@ -4941,7 +4925,7 @@
       <c r="P174" s="22"/>
       <c r="T174" s="22"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="22"/>
@@ -4960,7 +4944,7 @@
       <c r="P175" s="22"/>
       <c r="T175" s="22"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="22"/>
@@ -4979,7 +4963,7 @@
       <c r="P176" s="22"/>
       <c r="T176" s="22"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="22"/>
@@ -4998,7 +4982,7 @@
       <c r="P177" s="22"/>
       <c r="T177" s="22"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -5017,7 +5001,7 @@
       <c r="P178" s="22"/>
       <c r="T178" s="22"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="22"/>
@@ -5045,14 +5029,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5063,7 +5047,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5089,7 +5073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5099,7 +5083,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5109,7 +5093,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5119,7 +5103,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5129,7 +5113,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5139,7 +5123,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5149,7 +5133,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5159,7 +5143,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5169,7 +5153,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5179,7 +5163,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5189,7 +5173,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5199,7 +5183,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5209,7 +5193,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5219,7 +5203,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5229,7 +5213,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5239,7 +5223,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5249,7 +5233,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5259,7 +5243,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5281,21 +5265,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="40" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="40" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="40" customWidth="1"/>
-    <col min="5" max="5" width="35" style="40" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="17" style="40" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="40" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="40" customWidth="1"/>
     <col min="8" max="8" width="25.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
@@ -6124,7 +6108,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
@@ -6141,7 +6125,7 @@
       <c r="L1" s="44"/>
       <c r="M1" s="45"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -6156,7 +6140,7 @@
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
@@ -6197,22 +6181,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="16.5">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="35">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="35"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -6227,7 +6237,7 @@
       <c r="L5" s="42"/>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6242,7 +6252,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -6257,7 +6267,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -6272,7 +6282,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -6287,7 +6297,7 @@
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -6302,7 +6312,7 @@
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -6317,7 +6327,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -6332,7 +6342,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
